--- a/Nvprof summary/similarity results/spmv-Similarity.xlsx
+++ b/Nvprof summary/similarity results/spmv-Similarity.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/newsimilarity results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/similarity results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -6915,8 +6915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="Q1:R1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7221,7 +7222,7 @@
         <v>4.8045757964262004</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P4:P67" si="3">B5*$B$3+C5*$C$3+D5*$D$3+E5*$E$3+F5*$F$3+G5*$G$3+H5*$H$3+I5*$I$3+J5*$J$3+K5*$K$3+L5*$L$3+M5*$M$3</f>
+        <f t="shared" ref="P5:P67" si="3">B5*$B$3+C5*$C$3+D5*$D$3+E5*$E$3+F5*$F$3+G5*$G$3+H5*$H$3+I5*$I$3+J5*$J$3+K5*$K$3+L5*$L$3+M5*$M$3</f>
         <v>6.4795511161255908</v>
       </c>
       <c r="Q5">
@@ -7539,43 +7540,43 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.343269</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1.4378610000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1.343226</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.28328199999999998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>1.4158599999999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>12.610984999999999</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.22836600000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>0.28650500000000001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>1.4291180000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>2.2525E-2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>1.335453</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>1.4515929999999999</v>
       </c>
       <c r="N11">
@@ -7600,43 +7601,43 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1.139E-3</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>1.139E-3</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12">
@@ -7661,43 +7662,43 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1.1432199999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1.163897</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>1.1432199999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.102479</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>1.1583969999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>9.5681000000000002E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0.10431799999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>0.102479</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>1.2836000000000001</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>0.93484299999999998</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>1.1910019999999999</v>
       </c>
       <c r="N13">
@@ -10833,43 +10834,43 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>3539172</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>3476298</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>3539172</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>3072918</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>3492804</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>3283080</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>3301863</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>3072918</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>2910488</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>2557896</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <v>8956266</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="2">
         <v>3729324</v>
       </c>
       <c r="N65">
@@ -10894,43 +10895,43 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>8293232</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>8474732</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>8293081</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>3943420</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>8438127</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>44685951</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>4055896</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>3953324</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>7069920</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <v>2615512</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="2">
         <v>20916936</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="2">
         <v>9142785</v>
       </c>
       <c r="N66">
@@ -12849,7 +12850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
